--- a/thermal_collection.xlsx
+++ b/thermal_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejad\programming\Projects\Sustainable_projects\Thermal-leak-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B4A08-3997-42C8-92A4-174E4E3761B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E7908-FECF-4EA3-89C9-EBAE7AFCABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{369F00F5-D012-6C43-967E-6B59CF423A96}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +622,10 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -634,7 +634,7 @@
     <col min="9" max="9" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -817,7 +817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -846,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -899,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -920,12 +920,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -973,12 +973,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -996,13 +996,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1399,6 +1399,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd200160-fde7-4f61-9f54-3733e56025c2">
@@ -1407,15 +1416,6 @@
     <TaxCatchAll xmlns="8c8e6392-f821-409d-a139-5b17626920e8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1654,20 +1654,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7B6C08-2EBE-4587-BD8B-9C553198D9FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67026E8F-EF43-4C0A-9B91-B5DF62D1B71C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="dd200160-fde7-4f61-9f54-3733e56025c2"/>
     <ds:schemaRef ds:uri="8c8e6392-f821-409d-a139-5b17626920e8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7B6C08-2EBE-4587-BD8B-9C553198D9FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
